--- a/Economics/ACF - PACF/First Difference/unp_rate residuals - values.xlsx
+++ b/Economics/ACF - PACF/First Difference/unp_rate residuals - values.xlsx
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01294094246159933</v>
+        <v>0.0236327178097739</v>
       </c>
       <c r="C3">
-        <v>0.01307165905212055</v>
+        <v>0.02387143213108473</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.1244047489420071</v>
+        <v>-0.1179244159624256</v>
       </c>
       <c r="C4">
-        <v>-0.1271362131846188</v>
+        <v>-0.1209698160460688</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.06390202347095661</v>
+        <v>0.05596203667926628</v>
       </c>
       <c r="C5">
-        <v>0.07056300028699326</v>
+        <v>0.06478492092780792</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2722649847181778</v>
+        <v>0.082195569036719</v>
       </c>
       <c r="C6">
-        <v>0.27059894397295</v>
+        <v>0.06863959798346808</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08902254867204079</v>
+        <v>0.001362476295449164</v>
       </c>
       <c r="C7">
-        <v>0.11373102407227</v>
+        <v>0.01159503685023541</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.01334298017753643</v>
+        <v>-0.1099446585876743</v>
       </c>
       <c r="C8">
-        <v>0.04993762205945021</v>
+        <v>-0.1054330394463928</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.01002334984452836</v>
+        <v>-0.02894274632178158</v>
       </c>
       <c r="C9">
-        <v>-0.003682032024576394</v>
+        <v>-0.0335504622383121</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.1005677979535592</v>
+        <v>-0.09071969781229029</v>
       </c>
       <c r="C10">
-        <v>-0.2201441476268363</v>
+        <v>-0.1326106370288835</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1004492976936406</v>
+        <v>0.04956442342765736</v>
       </c>
       <c r="C11">
-        <v>0.04792467917251847</v>
+        <v>0.06979277642167142</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.03357433551765815</v>
+        <v>-0.01890681998110873</v>
       </c>
       <c r="C12">
-        <v>-0.1024262787878641</v>
+        <v>-0.03219339255988114</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.01473924190235098</v>
+        <v>-0.02436133404835145</v>
       </c>
       <c r="C13">
-        <v>0.0647978941187073</v>
+        <v>0.01164578842895311</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.3201237240741789</v>
+        <v>-0.3004270749952997</v>
       </c>
       <c r="C14">
-        <v>-0.3517599607363376</v>
+        <v>-0.3736232360845647</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.01166975730177485</v>
+        <v>-0.05235417327884328</v>
       </c>
       <c r="C15">
-        <v>0.02361377209426052</v>
+        <v>-0.0577320681593871</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1970244549878788</v>
+        <v>0.1544684910209997</v>
       </c>
       <c r="C16">
-        <v>0.208201022510844</v>
+        <v>0.08493993786718519</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.05683939636212714</v>
+        <v>0.01663152140704954</v>
       </c>
       <c r="C17">
-        <v>0.186812330001546</v>
+        <v>0.08979637503466381</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.06752251513083149</v>
+        <v>-0.05862597825968532</v>
       </c>
       <c r="C18">
-        <v>0.1997991113278739</v>
+        <v>-0.01569007892166466</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.03426856776801925</v>
+        <v>0.006218552301686019</v>
       </c>
       <c r="C19">
-        <v>0.04903729161300699</v>
+        <v>0.01180214085881966</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1571499123373092</v>
+        <v>0.167308026151497</v>
       </c>
       <c r="C20">
-        <v>0.06530891747240761</v>
+        <v>0.07667789628142858</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.05345011375896019</v>
+        <v>0.08268771563061759</v>
       </c>
       <c r="C21">
-        <v>-0.01541024864608632</v>
+        <v>0.09538018841493043</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.01989577827707777</v>
+        <v>0.03809659035006634</v>
       </c>
       <c r="C22">
-        <v>-0.1660833003186208</v>
+        <v>0.05025363465697413</v>
       </c>
     </row>
   </sheetData>
